--- a/Hypothesis_Testing.xlsx
+++ b/Hypothesis_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ISB-Tutorials\SA1\Tutorial2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{53A5BD1B-E7D5-4963-A466-DE0F4CA54B60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EFF716E6-0547-444B-965E-E97D748BFC46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{D7762F91-CB68-46AD-9B82-89BF15A1C58C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t xml:space="preserve">n </t>
   </si>
@@ -57,15 +57,9 @@
     <t>Ho</t>
   </si>
   <si>
-    <t>Pi &lt;= 0.58</t>
-  </si>
-  <si>
     <t>Ha</t>
   </si>
   <si>
-    <t>Pi &gt; 0.58</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zcritical Value </t>
   </si>
   <si>
@@ -199,6 +193,45 @@
   </si>
   <si>
     <t>Right tail test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statu quo </t>
+  </si>
+  <si>
+    <t>Claim or challenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status quo </t>
+  </si>
+  <si>
+    <t>Pi &gt; 0.57999</t>
+  </si>
+  <si>
+    <t>Pi &lt;= 0.57999</t>
+  </si>
+  <si>
+    <t>Pi &gt;= 0.58</t>
+  </si>
+  <si>
+    <t>Pi &lt; 0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeftTail test </t>
+  </si>
+  <si>
+    <t>mud&gt;=5</t>
+  </si>
+  <si>
+    <t>mud &lt;=5 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp = n1-2 </t>
+  </si>
+  <si>
+    <t>sp * sqrt(1/n1 + 1/n2)</t>
   </si>
 </sst>
 </file>
@@ -242,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -296,11 +329,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -309,6 +353,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -318,11 +367,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +687,7 @@
   <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +700,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>250</v>
@@ -661,7 +708,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>12</v>
@@ -669,13 +716,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1">
         <v>247</v>
@@ -684,30 +731,36 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <f>(B2-F4)/(B3/SQRT(60))</f>
         <v>1.9364916731037083</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -715,19 +768,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -745,11 +798,11 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ref="H10:I12" si="0">_xlfn.T.INV(F10,$B$4-1)</f>
+        <f>_xlfn.T.INV(F10,$B$4-1)</f>
         <v>-2.0009953780882688</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H10:I12" si="0">_xlfn.T.INV(G10,$B$4-1)</f>
         <v>2.0009953780882688</v>
       </c>
     </row>
@@ -801,7 +854,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -812,44 +865,44 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
+      <c r="A14" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>IF(ABS(I10)&lt;$B$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
         <v>Fail to reject Null Hypothesis</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>IF(ABS(I11)&lt;$B$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
         <v>Fail to reject Null Hypothesis</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>IF(ABS(I12)&lt;$B$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
         <v>Reject Null Hypothesis</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -862,10 +915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A009E46-560A-45E1-B7A6-DA2F05EB0826}">
-  <dimension ref="A3:H11"/>
+  <dimension ref="A3:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +930,7 @@
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -885,7 +938,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -902,10 +955,16 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -920,24 +979,33 @@
         <v>0.05</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -946,16 +1014,16 @@
         <v>-1.0170952554312147</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <f>_xlfn.NORM.INV(1-E5, 0,1)</f>
         <v>1.6448536269514715</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -965,12 +1033,12 @@
         <v>0.84544594142643448</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>IF(B8&gt;E8,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
@@ -987,7 +1055,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +1067,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1011,8 +1079,8 @@
       <c r="A3" s="1">
         <v>-8</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <f>AVERAGE(A2:A26)</f>
@@ -1022,33 +1090,39 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>32</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>22</v>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <f>_xlfn.STDEV.S(A2:A26)</f>
         <v>30.210207987808801</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>57</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>23</v>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <f>COUNT(A2:A26)</f>
@@ -1060,18 +1134,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>24</v>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="1">
         <f>(C3-0)/(C4/SQRT(C5))</f>
@@ -1081,19 +1155,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,11 +1188,11 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="I8" s="1">
-        <f>_xlfn.T.INV(G8,$C$5-1)</f>
+        <f t="shared" ref="I8:J10" si="0">_xlfn.T.INV(G8,$C$5-1)</f>
         <v>-2.0638985616280254</v>
       </c>
       <c r="J8" s="1">
-        <f>_xlfn.T.INV(H8,$C$5-1)</f>
+        <f t="shared" si="0"/>
         <v>2.0638985616280254</v>
       </c>
     </row>
@@ -1140,11 +1214,11 @@
         <v>0.995</v>
       </c>
       <c r="I9" s="1">
-        <f>_xlfn.T.INV(G9,$C$5-1)</f>
+        <f t="shared" si="0"/>
         <v>-2.7969395047744556</v>
       </c>
       <c r="J9" s="1">
-        <f>_xlfn.T.INV(H9,$C$5-1)</f>
+        <f t="shared" si="0"/>
         <v>2.7969395047744556</v>
       </c>
     </row>
@@ -1166,11 +1240,11 @@
         <v>0.95</v>
       </c>
       <c r="I10" s="1">
-        <f>_xlfn.T.INV(G10,$C$5-1)</f>
+        <f t="shared" si="0"/>
         <v>-1.7108820799094284</v>
       </c>
       <c r="J10" s="1">
-        <f>_xlfn.T.INV(H10,$C$5-1)</f>
+        <f t="shared" si="0"/>
         <v>1.7108820799094284</v>
       </c>
     </row>
@@ -1184,10 +1258,10 @@
         <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D12" s="1">
         <f>(1-_xlfn.T.DIST(C7,C5-1,TRUE))*2</f>
@@ -1198,11 +1272,11 @@
       <c r="A13" s="1">
         <v>-5</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>IF(ABS(J8)&lt;$C$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
@@ -1213,9 +1287,9 @@
       <c r="A14" s="1">
         <v>16</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>IF(ABS(J9)&lt;$C$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
@@ -1226,9 +1300,9 @@
       <c r="A15" s="1">
         <v>22</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4" t="str">
         <f>IF(ABS(J10)&lt;$C$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
@@ -1300,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642AB1A2-C790-45B2-BF88-6696793A79D5}">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,37 +1387,37 @@
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>46</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>26</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>42</v>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>43</v>
+      <c r="G3" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>45</v>
@@ -1352,56 +1426,62 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>51</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="B9" s="1">
         <f>B4+B7-2</f>
@@ -1411,24 +1491,24 @@
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>54</v>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <f>((B2-B5)-0)/SQRT(B3^2/B4 +B6^2/B7)</f>
@@ -1452,11 +1532,11 @@
         <v>-3.1824463052837091</v>
       </c>
       <c r="J10" s="1">
-        <f>_xlfn.T.INV(H10,$B$10)</f>
-        <v>3.1824463052837078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.T.INV(H10,$B$9)</f>
+        <v>1.9921021540022406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E11" s="5">
         <v>0.01</v>
       </c>
@@ -1475,11 +1555,11 @@
         <v>-5.8409093097333571</v>
       </c>
       <c r="J11" s="1">
-        <f>_xlfn.T.INV(H11,$B$10)</f>
-        <v>5.8409093097333553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.T.INV(H11,$B$9)</f>
+        <v>2.6429830669673917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E12" s="5">
         <v>0.1</v>
       </c>
@@ -1494,56 +1574,56 @@
         <v>0.95</v>
       </c>
       <c r="I12" s="1">
-        <f>_xlfn.T.INV(G12,$B$10)</f>
+        <f t="shared" ref="I10:J12" si="0">_xlfn.T.INV(G12,$B$10)</f>
         <v>-2.3533634348018233</v>
       </c>
       <c r="J12" s="1">
-        <f>_xlfn.T.INV(H12,$B$10)</f>
-        <v>2.3533634348018233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <f>_xlfn.T.INV(H12,$B$9)</f>
+        <v>1.6654253733225626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="1">
         <f>1-_xlfn.T.DIST(B10,B9,TRUE)</f>
         <v>1.2349039091817948E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
+    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>IF(ABS(I10)&lt;$C$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
-        <v>Fail to reject Null Hypothesis</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+        <f>IF(ABS(I10)&gt;$C$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
+        <v>Reject Null Hypothesis</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>IF(ABS(I11)&lt;$C$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
-        <v>Fail to reject Null Hypothesis</v>
+        <f>IF(ABS(I11)&gt;$C$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
+        <v>Reject Null Hypothesis</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>IF(ABS(I12)&lt;$C$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
-        <v>Fail to reject Null Hypothesis</v>
+        <f>IF(ABS(I12)&gt;$C$7,"Reject Null Hypothesis","Fail to reject Null Hypothesis")</f>
+        <v>Reject Null Hypothesis</v>
       </c>
     </row>
   </sheetData>
